--- a/ysrs2 ssa/matrixes/corr_lambdas.xlsx
+++ b/ysrs2 ssa/matrixes/corr_lambdas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH34"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,13 +533,19 @@
       <c r="AH1" s="1" t="n">
         <v>32</v>
       </c>
+      <c r="AI1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.30941704911917</v>
+        <v>14.48433289256554</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -635,6 +641,12 @@
         <v>0</v>
       </c>
       <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -646,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10.39084010310895</v>
+        <v>10.0736367654875</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -739,6 +751,12 @@
         <v>0</v>
       </c>
       <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -753,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.327079580054936</v>
+        <v>3.17659814331083</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -843,6 +861,12 @@
         <v>0</v>
       </c>
       <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -860,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.882314678866672</v>
+        <v>2.214924190957984</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -947,6 +971,12 @@
         <v>0</v>
       </c>
       <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -967,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.404957341790227</v>
+        <v>1.241904923035922</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1051,6 +1081,12 @@
         <v>0</v>
       </c>
       <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1074,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7764073426077047</v>
+        <v>0.8215235589559928</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1155,6 +1191,12 @@
         <v>0</v>
       </c>
       <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1181,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6868240902341337</v>
+        <v>0.885270365287341</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1259,6 +1301,12 @@
         <v>0</v>
       </c>
       <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1288,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5799059242458059</v>
+        <v>0.09061962104880264</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1363,6 +1411,12 @@
         <v>0</v>
       </c>
       <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1395,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4336099274980735</v>
+        <v>0.5435170356649683</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1467,6 +1521,12 @@
         <v>0</v>
       </c>
       <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1502,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05700579816562983</v>
+        <v>0.507329304277006</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1571,6 +1631,12 @@
         <v>0</v>
       </c>
       <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1609,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1060081444561452</v>
+        <v>0.2391122758873609</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1675,6 +1741,12 @@
         <v>0</v>
       </c>
       <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1716,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3191475461988386</v>
+        <v>0.3281475414741265</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1779,6 +1851,12 @@
         <v>0</v>
       </c>
       <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1823,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.209553473158045</v>
+        <v>0.3930833820466329</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1883,6 +1961,12 @@
         <v>0</v>
       </c>
       <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1930,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2624547413846233</v>
+        <v>-7.190621613715121e-16</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1987,6 +2071,12 @@
         <v>0</v>
       </c>
       <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2037,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.2544742591110495</v>
+        <v>-7.190621613715121e-16</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -2091,6 +2181,12 @@
         <v>0</v>
       </c>
       <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2144,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.197288011012897e-15</v>
+        <v>5.698258448364944e-16</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2195,6 +2291,12 @@
         <v>0</v>
       </c>
       <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2251,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>6.283498171440037e-16</v>
+        <v>5.698258448364944e-16</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -2299,6 +2401,12 @@
         <v>0</v>
       </c>
       <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>6.138499393674112e-16</v>
+        <v>-6.570937268611783e-17</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2403,6 +2511,12 @@
         <v>0</v>
       </c>
       <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2465,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>3.655255283388045e-16</v>
+        <v>-6.570937268611783e-17</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2507,6 +2621,12 @@
         <v>0</v>
       </c>
       <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2572,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>3.655255283388045e-16</v>
+        <v>3.648468800192603e-16</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2611,6 +2731,12 @@
         <v>0</v>
       </c>
       <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2679,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>-5.704464715163493e-16</v>
+        <v>3.648468800192603e-16</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2715,6 +2841,12 @@
         <v>0</v>
       </c>
       <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>-5.704464715163493e-16</v>
+        <v>3.175963566890125e-16</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2819,6 +2951,12 @@
         <v>0</v>
       </c>
       <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2893,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>1.562655796714786e-16</v>
+        <v>3.175963566890125e-16</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2923,6 +3061,12 @@
         <v>0</v>
       </c>
       <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3000,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.562655796714786e-16</v>
+        <v>-4.62986842669504e-16</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -3027,6 +3171,12 @@
         <v>0</v>
       </c>
       <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3107,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.103912203257992e-16</v>
+        <v>-4.62986842669504e-16</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -3131,6 +3281,12 @@
         <v>0</v>
       </c>
       <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3214,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>8.441847869881958e-18</v>
+        <v>1.077444818183858e-16</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -3235,6 +3391,12 @@
         <v>0</v>
       </c>
       <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3321,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>-2.785933423925332e-16</v>
+        <v>1.077444818183858e-16</v>
       </c>
       <c r="AC28" t="n">
         <v>0</v>
@@ -3339,6 +3501,12 @@
         <v>0</v>
       </c>
       <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3428,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.785933423925332e-16</v>
+        <v>6.53128183089937e-17</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -3443,6 +3611,12 @@
         <v>0</v>
       </c>
       <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3535,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>-1.772080534420015e-16</v>
+        <v>6.53128183089937e-17</v>
       </c>
       <c r="AE30" t="n">
         <v>0</v>
@@ -3547,6 +3721,12 @@
         <v>0</v>
       </c>
       <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3642,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>-3.791983316582828e-16</v>
+        <v>-2.219548042909112e-16</v>
       </c>
       <c r="AF31" t="n">
         <v>0</v>
@@ -3651,6 +3831,12 @@
         <v>0</v>
       </c>
       <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3749,12 +3935,18 @@
         <v>0</v>
       </c>
       <c r="AF32" t="n">
-        <v>-3.265157976055845e-16</v>
+        <v>-2.219548042909112e-16</v>
       </c>
       <c r="AG32" t="n">
         <v>0</v>
       </c>
       <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3856,9 +4048,15 @@
         <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>-2.793060053908226e-16</v>
+        <v>-6.484476954447993e-17</v>
       </c>
       <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3963,7 +4161,233 @@
         <v>0</v>
       </c>
       <c r="AH34" t="n">
-        <v>-2.793060053908226e-16</v>
+        <v>-6.484476954447993e-17</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>-2.954486370814103e-16</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>-2.43362683501509e-16</v>
       </c>
     </row>
   </sheetData>

--- a/ysrs2 ssa/matrixes/corr_lambdas.xlsx
+++ b/ysrs2 ssa/matrixes/corr_lambdas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AL38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,13 +539,19 @@
       <c r="AJ1" s="1" t="n">
         <v>34</v>
       </c>
+      <c r="AK1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14.48433289256554</v>
+        <v>16.07148818542964</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -647,6 +653,12 @@
         <v>0</v>
       </c>
       <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -658,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10.0736367654875</v>
+        <v>9.635561810267625</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -757,6 +769,12 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -771,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.17659814331083</v>
+        <v>3.576743647890252</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -867,6 +885,12 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -884,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.214924190957984</v>
+        <v>2.692732783314524</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -977,6 +1001,12 @@
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -997,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.241904923035922</v>
+        <v>1.269268626380597</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1087,6 +1117,12 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8215235589559928</v>
+        <v>0.9469535837294996</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1197,6 +1233,12 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1223,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.885270365287341</v>
+        <v>0.8714242192721207</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1307,6 +1349,12 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1336,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09061962104880264</v>
+        <v>0.6652097264267364</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1417,6 +1465,12 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1449,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5435170356649683</v>
+        <v>0.6031821029591972</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1527,6 +1581,12 @@
         <v>0</v>
       </c>
       <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1562,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.507329304277006</v>
+        <v>0.4193631698115249</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1637,6 +1697,12 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1675,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2391122758873609</v>
+        <v>0.2480721445182853</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1747,6 +1813,12 @@
         <v>0</v>
       </c>
       <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1788,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3281475414741265</v>
+        <v>-5.525083707624162e-16</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1857,6 +1929,12 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1901,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.3930833820466329</v>
+        <v>-5.525083707624162e-16</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1967,6 +2045,12 @@
         <v>0</v>
       </c>
       <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2014,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>-7.190621613715121e-16</v>
+        <v>-7.098535346835528e-16</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -2077,6 +2161,12 @@
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2127,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-7.190621613715121e-16</v>
+        <v>-7.098535346835528e-16</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -2187,6 +2277,12 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2240,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>5.698258448364944e-16</v>
+        <v>4.918566752531728e-16</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2297,6 +2393,12 @@
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2353,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>5.698258448364944e-16</v>
+        <v>4.918566752531728e-16</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -2407,6 +2509,12 @@
         <v>0</v>
       </c>
       <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2466,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-6.570937268611783e-17</v>
+        <v>4.617977868798134e-16</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2517,6 +2625,12 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2579,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-6.570937268611783e-17</v>
+        <v>4.617977868798134e-16</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2627,6 +2741,12 @@
         <v>0</v>
       </c>
       <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2692,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>3.648468800192603e-16</v>
+        <v>4.366799587587993e-16</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2737,6 +2857,12 @@
         <v>0</v>
       </c>
       <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2805,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>3.648468800192603e-16</v>
+        <v>3.591456779056886e-16</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2847,6 +2973,12 @@
         <v>0</v>
       </c>
       <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2918,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>3.175963566890125e-16</v>
+        <v>2.096717956679158e-16</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2957,6 +3089,12 @@
         <v>0</v>
       </c>
       <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3031,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>3.175963566890125e-16</v>
+        <v>2.096717956679158e-16</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -3067,6 +3205,12 @@
         <v>0</v>
       </c>
       <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3144,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>-4.62986842669504e-16</v>
+        <v>-4.369951495035832e-16</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -3177,6 +3321,12 @@
         <v>0</v>
       </c>
       <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3257,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>-4.62986842669504e-16</v>
+        <v>-4.369951495035832e-16</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -3287,6 +3437,12 @@
         <v>0</v>
       </c>
       <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3370,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.077444818183858e-16</v>
+        <v>1.892739010195281e-16</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -3397,6 +3553,12 @@
         <v>0</v>
       </c>
       <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3483,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>1.077444818183858e-16</v>
+        <v>-4.050222558005984e-16</v>
       </c>
       <c r="AC28" t="n">
         <v>0</v>
@@ -3507,6 +3669,12 @@
         <v>0</v>
       </c>
       <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3596,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>6.53128183089937e-17</v>
+        <v>-4.050222558005984e-16</v>
       </c>
       <c r="AD29" t="n">
         <v>0</v>
@@ -3617,6 +3785,12 @@
         <v>0</v>
       </c>
       <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3709,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>6.53128183089937e-17</v>
+        <v>3.734250270891485e-17</v>
       </c>
       <c r="AE30" t="n">
         <v>0</v>
@@ -3727,6 +3901,12 @@
         <v>0</v>
       </c>
       <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3822,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>-2.219548042909112e-16</v>
+        <v>3.734250270891485e-17</v>
       </c>
       <c r="AF31" t="n">
         <v>0</v>
@@ -3837,6 +4017,12 @@
         <v>0</v>
       </c>
       <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3935,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="AF32" t="n">
-        <v>-2.219548042909112e-16</v>
+        <v>5.62262627589134e-18</v>
       </c>
       <c r="AG32" t="n">
         <v>0</v>
@@ -3947,6 +4133,12 @@
         <v>0</v>
       </c>
       <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>-6.484476954447993e-17</v>
+        <v>-1.356843935580474e-16</v>
       </c>
       <c r="AH33" t="n">
         <v>0</v>
@@ -4057,6 +4249,12 @@
         <v>0</v>
       </c>
       <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4161,12 +4359,18 @@
         <v>0</v>
       </c>
       <c r="AH34" t="n">
-        <v>-6.484476954447993e-17</v>
+        <v>-1.356843935580474e-16</v>
       </c>
       <c r="AI34" t="n">
         <v>0</v>
       </c>
       <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4274,9 +4478,15 @@
         <v>0</v>
       </c>
       <c r="AI35" t="n">
-        <v>-2.954486370814103e-16</v>
+        <v>-2.813488403302961e-16</v>
       </c>
       <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4387,7 +4597,245 @@
         <v>0</v>
       </c>
       <c r="AJ36" t="n">
-        <v>-2.43362683501509e-16</v>
+        <v>-2.813488403302961e-16</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>-2.146077400141925e-16</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>-2.692493306336657e-16</v>
       </c>
     </row>
   </sheetData>
